--- a/templates/import-excel-template/Snap-Repair_Mass_Upload_Data_TEMPLATE.xlsx
+++ b/templates/import-excel-template/Snap-Repair_Mass_Upload_Data_TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\snap_repair\templates\import-excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFAF447-2C43-40D7-BDF7-0F1EFA80E56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84EAA1E-223D-4108-AE5F-E571D956A2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CE0E5A5C-AF10-4BA1-8F54-740D82E82A5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE0E5A5C-AF10-4BA1-8F54-740D82E82A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMPORT ASSETS DATA" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ASSET TYPE</t>
   </si>
@@ -73,6 +73,9 @@
   <si>
     <t>REPAIR COST</t>
   </si>
+  <si>
+    <t xml:space="preserve">DEPARTMENT </t>
+  </si>
 </sst>
 </file>
 
@@ -81,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +117,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -129,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -209,11 +219,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -256,11 +285,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AD8984EF-3DB9-459C-B517-6948EA36A2EA}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -308,7 +341,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -336,39 +369,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
       </border>
     </dxf>
     <dxf>
@@ -401,7 +401,7 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
@@ -416,6 +416,18 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
@@ -455,7 +467,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -553,6 +565,39 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -605,35 +650,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F0DAC7D-5AFD-43A5-88B4-54CC9E03B531}" name="Table2" displayName="Table2" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F0DAC7D-5AFD-43A5-88B4-54CC9E03B531}" name="Table2" displayName="Table2" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A1:C1048576" xr:uid="{8F0DAC7D-5AFD-43A5-88B4-54CC9E03B531}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{91B0B9A3-4D25-4E84-82EA-29B8AB132AD8}" name="ASSET TYPE" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{EC93558A-FE09-43E2-BD82-68124CE75971}" name="CATEGORY" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4463C94A-F18D-4219-B869-9F0EFA28D1ED}" name="STATUS" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{91B0B9A3-4D25-4E84-82EA-29B8AB132AD8}" name="ASSET TYPE" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{EC93558A-FE09-43E2-BD82-68124CE75971}" name="CATEGORY" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{4463C94A-F18D-4219-B869-9F0EFA28D1ED}" name="STATUS" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51945D03-E705-42DD-BCC3-5C6D319C58C4}" name="Table1" displayName="Table1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A1:G1048576" xr:uid="{51945D03-E705-42DD-BCC3-5C6D319C58C4}"/>
-  <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{2D27ECC3-EEA1-4BED-815C-1C8156CB5F36}" name="ASSET TYPE(ID)" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{1FE60299-E68D-484F-BEB7-630FB3B5ACBE}" name="ASSET NAME" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{C28CEF47-C9FC-4E46-B7AE-DF0F7B91DDC6}" name="PURCHASE DATE" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{3D750EB1-6413-4371-B258-F522E042565D}" name="PURCHASE COST" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{2E6437EE-B88A-4FBC-84EF-F8A9B77B17AA}" name="UTILIZATION" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{7966110F-0F1B-436B-97E8-6F85655427E8}" name="INTENSITY" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{78B57875-B9DB-47A8-9FCB-3B472CC333CC}" name="STATUS" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51945D03-E705-42DD-BCC3-5C6D319C58C4}" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A1:H1048576" xr:uid="{51945D03-E705-42DD-BCC3-5C6D319C58C4}"/>
+  <tableColumns count="8">
+    <tableColumn id="2" xr3:uid="{2D27ECC3-EEA1-4BED-815C-1C8156CB5F36}" name="ASSET TYPE(ID)" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{1FE60299-E68D-484F-BEB7-630FB3B5ACBE}" name="ASSET NAME" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{C28CEF47-C9FC-4E46-B7AE-DF0F7B91DDC6}" name="PURCHASE DATE" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{3D750EB1-6413-4371-B258-F522E042565D}" name="PURCHASE COST" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{2E6437EE-B88A-4FBC-84EF-F8A9B77B17AA}" name="UTILIZATION" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{7966110F-0F1B-436B-97E8-6F85655427E8}" name="INTENSITY" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{78B57875-B9DB-47A8-9FCB-3B472CC333CC}" name="STATUS" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{FAA752EA-CBDE-4951-AD52-D5E6F9883EA8}" name="DEPARTMENT " dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7E9FE7CD-5CC3-43AD-A596-EDB224D9A68F}" name="Table3" displayName="Table3" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7E9FE7CD-5CC3-43AD-A596-EDB224D9A68F}" name="Table3" displayName="Table3" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E1048576" xr:uid="{7E9FE7CD-5CC3-43AD-A596-EDB224D9A68F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A1E316DE-3E6F-46B4-B9EC-6DA72B18A9D8}" name="SERIAL NO" dataDxfId="4"/>
@@ -945,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D358FD7-6994-4EBC-B93A-F75161902BB7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1007,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8248284F-1BBF-4116-902B-0CA30D36B72A}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,6 +1068,7 @@
     <col min="5" max="5" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1046,9 +1093,472 @@
       <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="20"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="3"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="3"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="3"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="3"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="3"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="3"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="3"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="3"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="3"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="3"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="3"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="3"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="3"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="3"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="3"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="3"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="3"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="3"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="3"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="3"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="3"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="3"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="3"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="3"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="3"/>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="3"/>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="3"/>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="3"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="3"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="3"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="3"/>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="3"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="3"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="3"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="3"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="3"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="3"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="3"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="3"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="3"/>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="3"/>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="3"/>
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="3"/>
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="3"/>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="3"/>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="3"/>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="3"/>
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="3"/>
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="3"/>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="3"/>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="3"/>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="3"/>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="3"/>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="3"/>
+      <c r="H75"/>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="3"/>
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="3"/>
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="3"/>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="3"/>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G80" s="3"/>
+      <c r="H80"/>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G81" s="3"/>
+      <c r="H81"/>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G82" s="3"/>
+      <c r="H82"/>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G83" s="3"/>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="3"/>
+      <c r="H84"/>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G85" s="3"/>
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G86" s="3"/>
+      <c r="H86"/>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="3"/>
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="3"/>
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G89" s="3"/>
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="3"/>
+      <c r="H90"/>
+    </row>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="3"/>
+      <c r="H91"/>
+    </row>
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="3"/>
+      <c r="H92"/>
+    </row>
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G93" s="3"/>
+      <c r="H93"/>
+    </row>
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="3"/>
+      <c r="H94"/>
+    </row>
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G95" s="3"/>
+      <c r="H95"/>
+    </row>
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="3"/>
+      <c r="H96"/>
+    </row>
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G97" s="3"/>
+      <c r="H97"/>
+    </row>
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="3"/>
+      <c r="H98"/>
+    </row>
+    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G99" s="3"/>
+      <c r="H99"/>
+    </row>
+    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="3"/>
+      <c r="H100"/>
+    </row>
+    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G101" s="3"/>
+      <c r="H101"/>
+    </row>
+    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="3"/>
+      <c r="H102"/>
+    </row>
+    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G103" s="3"/>
+      <c r="H103"/>
+    </row>
+    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G104" s="3"/>
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G105" s="3"/>
+      <c r="H105"/>
+    </row>
+    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G106" s="3"/>
+      <c r="H106"/>
+    </row>
+    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G107" s="3"/>
+      <c r="H107"/>
+    </row>
+    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G108" s="3"/>
+      <c r="H108"/>
+    </row>
+    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="3"/>
+      <c r="H109"/>
+    </row>
+    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="3"/>
+      <c r="H110"/>
+    </row>
+    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="3"/>
+      <c r="H111"/>
+    </row>
+    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G112" s="3"/>
+      <c r="H112"/>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G113" s="3"/>
+      <c r="H113"/>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G114" s="3"/>
+      <c r="H114"/>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G115" s="3"/>
+      <c r="H115"/>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G116" s="3"/>
+      <c r="H116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
